--- a/OpenWorld/Resources/Settlements.xlsx
+++ b/OpenWorld/Resources/Settlements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -41,6 +41,54 @@
   </si>
   <si>
     <t>Niie</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Calethar</t>
+  </si>
+  <si>
+    <t>Ilidor</t>
+  </si>
+  <si>
+    <t>Baldor</t>
+  </si>
+  <si>
+    <t>Nexom</t>
+  </si>
+  <si>
+    <t>Saldorm</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Bagdun</t>
+  </si>
+  <si>
+    <t>Leovin</t>
+  </si>
+  <si>
+    <t>Bentol</t>
+  </si>
+  <si>
+    <t>Koriam</t>
+  </si>
+  <si>
+    <t>Leroas</t>
+  </si>
+  <si>
+    <t>Falrel</t>
   </si>
 </sst>
 </file>
@@ -382,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,49 +442,172 @@
     <col min="2" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/OpenWorld/Resources/Settlements.xlsx
+++ b/OpenWorld/Resources/Settlements.xlsx
@@ -46,15 +46,6 @@
     <t>size</t>
   </si>
   <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>Calethar</t>
   </si>
   <si>
@@ -89,6 +80,15 @@
   </si>
   <si>
     <t>Falrel</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B10" sqref="B10:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,63 +495,63 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,15 +559,15 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,39 +575,39 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/OpenWorld/Resources/Settlements.xlsx
+++ b/OpenWorld/Resources/Settlements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>small</t>
+  </si>
+  <si>
+    <t>number of connections</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,172 +445,235 @@
     <col min="2" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/OpenWorld/Resources/Settlements.xlsx
+++ b/OpenWorld/Resources/Settlements.xlsx
@@ -98,12 +98,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -127,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -436,23 +446,24 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -678,5 +689,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OpenWorld/Resources/Settlements.xlsx
+++ b/OpenWorld/Resources/Settlements.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="D21" sqref="A19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OpenWorld/Resources/Settlements.xlsx
+++ b/OpenWorld/Resources/Settlements.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="A19:D21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
